--- a/biology/Médecine/James_Braid_(médecin)/James_Braid_(médecin).xlsx
+++ b/biology/Médecine/James_Braid_(médecin)/James_Braid_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>James_Braid_(m%C3%A9decin)</t>
+          <t>James_Braid_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Braid, né dans le district de Fife en Écosse le 19 juin et mort à Manchester le 25 mars 1860, est un chirurgien écossais, connu pour ses travaux sur l'hypnose.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>James_Braid_(m%C3%A9decin)</t>
+          <t>James_Braid_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études de médecine à Édimbourg et pratique la médecine à Manchester. Il commence à s'intéresser au magnétisme animal en 1841, lorsqu'il est le témoin, à Manchester, d'une démonstration du magnétiseur franco-suisse Charles Lafontaine.
 On attribue souvent et abusivement à Braid l'invention du terme hypnose dans son livre Neurypnologie, Traité du sommeil nerveux ou hypnotisme, considéré dans ses relations avec le magnétisme animal, qu'il publie en 1843. En réalité, le terme avait déjà été utilisé par le baron Etienne Félix d'Henin de Cuvillers en 1819 (Référence ?). Dans son livre, Braid essaie de se différencier des travaux des magnétiseurs « imaginationnistes » tels qu'Alexandre Bertrand et l'abbé Faria. Il remplace leur méthode d'induction visuelle par fixation de l'attention sur la main tendue du magnétiseur par la fixation de l'attention sur un objet brillant.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>James_Braid_(m%C3%A9decin)</t>
+          <t>James_Braid_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Le braidisme en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1859, les médecins Eugène Azam et Paul Broca rendent compte devant l'Académie des sciences d'une intervention pratiquée sous anesthésie hypnotique. En 1860, Alfred Velpeau présente les travaux de Braid à l'Académie des sciences. Cette même année, Joseph Durand de Gros publie son Cours théorique et pratique du Braidisme, ou hypnotisme nerveux. En 1870, Hippolyte Taine présente une introduction aux théories de Braid {Tome 2, livre 1, chapitre I, IV}  dans son De l'Intelligence.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>James_Braid_(m%C3%A9decin)</t>
+          <t>James_Braid_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Satanic agency and mesmerism reviewed, 1842
 (en) Neurypnology; or the rationale of nervous sleep, considered in relation with animal magnetism. Illustrated by numerous case of its successful application in the relief and cure of disease, 1843, (Trad. française : Hypnose ou Traité du sommeil nerveux, considéré dans ses relations avec le magnétisme animal, 1883, Rééd. L'Harmattan, Paris, 2004) Texte en ligne (anglais) (français)
